--- a/data/us_census_pop.xlsx
+++ b/data/us_census_pop.xlsx
@@ -8,17 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\l1942\Documents\capstone\lethal_alleys\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{399D0303-61F8-4A0C-B216-3EB398F7059E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A28E75A-E7BC-460D-BE0B-E9CB2B90090B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2448" yWindow="1236" windowWidth="17436" windowHeight="9156" activeTab="1" xr2:uid="{4D055CC9-8CEB-4AA9-B203-06ACA2D14721}"/>
+    <workbookView xWindow="2448" yWindow="1236" windowWidth="18312" windowHeight="11232" xr2:uid="{4D055CC9-8CEB-4AA9-B203-06ACA2D14721}"/>
   </bookViews>
   <sheets>
-    <sheet name="TA_pop_den" sheetId="1" r:id="rId1"/>
-    <sheet name="DA_pop_den" sheetId="2" r:id="rId2"/>
+    <sheet name="D_pop_den" sheetId="3" r:id="rId1"/>
+    <sheet name="T_pop_den" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TA_pop_den!$A$1:$C$31</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="15">
   <si>
     <t>TX</t>
   </si>
@@ -437,23 +434,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73CF8D98-C1B4-4BFF-8A58-4C8A5ADB6FCF}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F31"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8B5B55B-21AD-472D-BB91-2EFEDCD6EC2E}">
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:C31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.88671875" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -464,7 +454,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2000</v>
       </c>
@@ -474,9 +464,8 @@
       <c r="C2">
         <v>87.8</v>
       </c>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -486,9 +475,8 @@
       <c r="C3">
         <v>51.4</v>
       </c>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -498,9 +486,8 @@
       <c r="C4">
         <v>142.30000000000001</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -510,9 +497,8 @@
       <c r="C5">
         <v>103.4</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2000</v>
       </c>
@@ -522,9 +508,8 @@
       <c r="C6">
         <v>60.6</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2000</v>
       </c>
@@ -534,9 +519,8 @@
       <c r="C7">
         <v>138</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2010</v>
       </c>
@@ -547,7 +531,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -558,7 +542,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2010</v>
       </c>
@@ -569,255 +553,107 @@
         <v>168.4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2010</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C11">
-        <v>54.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2010</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12">
-        <v>34.9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>63.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2010</v>
       </c>
       <c r="B13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13">
-        <v>104.9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>153.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>87.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.3">
+        <v>96.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="C15">
-        <v>63.2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>58.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B16" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>23.8</v>
+        <v>186.7</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17">
-        <v>54.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
+        <v>107.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
-        <v>153.9</v>
+        <v>63.7</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B19" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>96.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>2020</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>96.9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>2020</v>
-      </c>
-      <c r="B21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C21">
-        <v>58.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>2020</v>
-      </c>
-      <c r="B22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C22">
-        <v>186.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23" t="s">
-        <v>3</v>
-      </c>
-      <c r="C23">
-        <v>56.9</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>2020</v>
-      </c>
-      <c r="B24" t="s">
-        <v>4</v>
-      </c>
-      <c r="C24">
-        <v>35.6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>2020</v>
-      </c>
-      <c r="B25" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25">
-        <v>107.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2020</v>
-      </c>
-      <c r="B26" t="s">
-        <v>2</v>
-      </c>
-      <c r="C26">
-        <v>89.7</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>2020</v>
-      </c>
-      <c r="B27" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27">
-        <v>63.7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2020</v>
-      </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28">
-        <v>25.4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>2020</v>
-      </c>
-      <c r="B29" t="s">
-        <v>11</v>
-      </c>
-      <c r="C29">
-        <v>57.7</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>2020</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
-      </c>
-      <c r="C30">
         <v>167.27</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>2020</v>
-      </c>
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>112.8</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:C31" xr:uid="{CB807008-FA5F-4FB3-8AA1-CBB6087B7A02}">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="IA"/>
-        <filter val="KS"/>
-        <filter val="MO"/>
-        <filter val="NE"/>
-        <filter val="OK"/>
-        <filter val="TX"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B9">
-    <sortCondition ref="B3:B9"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -825,7 +661,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA3EDC48-9817-4323-8D98-0E21989FC388}">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
